--- a/links_lanacion.xlsx
+++ b/links_lanacion.xlsx
@@ -238,106 +238,106 @@
     <t>https://pdf.lanacion.com.ar/</t>
   </si>
   <si>
+    <t>https://www.lanacion.com.ar/politica/el-gobierno-avanza-con-una-purga-en-la-side-y-hay-preocupacion-por-los-efectos-que-pueda-generar-nid08092024/</t>
+  </si>
+  <si>
     <t>https://www.lanacion.com.ar/politica/alivio-en-el-gobierno-por-el-fin-del-asedio-a-la-embajada-argentina-y-aprestos-para-mas-denuncias-nid08092024/</t>
   </si>
   <si>
+    <t>https://www.lanacion.com.ar/el-mundo/el-exilio-forzado-de-edmundo-gonzalez-un-misil-del-chavismo-contra-la-moral-de-la-poblacion-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/el-papelon-de-lula-da-silva-la-burla-de-maduro-y-el-camino-hacia-ningun-lado-nid07092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/patricia-bullrich-hablo-de-la-llave-de-oro-del-kirchnerismo-en-el-senado-de-la-corte-al-jury-a-milei-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/capturaron-al-carnicero-de-giles-el-asesino-multiple-que-se-habia-escapado-durante-una-salida-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/la-fuerte-acusacion-de-javier-castrilli-contra-la-afa-tras-la-denuncia-de-merlos-al-presidente-de-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/sociedad/cortina-de-humo-que-es-el-fenomeno-que-llegara-a-buenos-aires-este-lunes-y-que-fue-advertido-por-el-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/historico-con-un-golazo-de-kishi-nunez-la-seleccion-argentina-avanzo-por-primera-vez-a-los-octavos-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/la-afip-dio-nuevas-precisiones-para-adherirse-al-regimen-de-regularizacion-de-capitales-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/tras-el-paro-aerolineas-inicia-una-semana-en-calma-pero-con-el-conflicto-abierto-y-a-la-espera-de-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/me-tratan-como-una-delincuente-y-soy-la-victima-dijo-la-denunciante-de-los-rugbiers-franceses-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/la-casta-que-rodea-al-presidente-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/asesinaron-a-una-sargento-de-la-policia-bonaerense-mientras-trabajaba-como-chofer-de-una-app-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/el-pacto-no-escrito-entre-javier-milei-y-cristina-kirchner-nid07092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/el-hijo-del-argentino-asesinado-en-cisjordania-es-un-sobreviviente-al-ataque-de-hamas-papa-me-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/un-patrullero-atropello-a-tres-personas-durante-una-persecucion-en-un-exclusivo-barrio-de-madrid-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/colombia-o-argentina-inteligencia-artificial-predice-resultado-del-esperado-partido-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/el-peronismo-en-su-laberinto-quintela-avanza-sin-el-aval-de-cristina-kirchner-y-schiaretti-construye-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/bandera-roja-y-martillo-la-justicia-ordeno-retomar-los-remates-de-bienes-de-lazaro-baez-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/la-jugada-del-arquero-de-penarol-que-desato-un-escandalo-tres-expulsados-y-seis-amonestados-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/formula-1-para-todos-un-diputado-reclamo-al-gobierno-que-la-tv-publica-transmita-las-carreras-de-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/cristiano-ronaldo-a-los-39-anos-fue-otra-vez-clave-para-que-portugal-le-gane-a-escocia-por-la-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/colombia-argentina-por-las-eliminatorias-lionel-scaloni-esta-conforme-con-el-nivel-de-equipo-pero-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/river-volvio-a-ganarle-a-boca-en-reserva-y-disfruta-de-un-ano-perfecto-en-el-superclasico-nid08092024/</t>
+  </si>
+  <si>
     <t>https://www.lanacion.com.ar/el-mundo/asi-fue-la-salida-de-edmundo-gonzalez-de-venezuela-amenazado-por-la-dictadura-de-nicolas-maduro-nid08092024/</t>
   </si>
   <si>
-    <t>https://www.lanacion.com.ar/el-mundo/el-papelon-de-lula-da-silva-la-burla-de-maduro-y-el-camino-hacia-ningun-lado-nid07092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/el-exilio-forzado-de-edmundo-gonzalez-un-misil-del-chavismo-contra-la-moral-de-la-poblacion-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/patricia-bullrich-hablo-de-la-llave-de-oro-del-kirchnerismo-en-el-senado-de-la-corte-al-jury-a-milei-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/capturaron-al-carnicero-de-giles-el-asesino-multiple-que-se-habia-escapado-durante-una-salida-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/la-fuerte-acusacion-de-javier-castrilli-contra-la-afa-tras-la-denuncia-de-merlos-al-presidente-de-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/historico-con-un-golazo-de-kishi-nunez-la-seleccion-argentina-avanzo-por-primera-vez-a-los-octavos-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/sociedad/cortina-de-humo-que-es-el-fenomeno-que-llegara-a-buenos-aires-este-lunes-y-que-fue-advertido-por-el-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/la-afip-dio-nuevas-precisiones-para-adherirse-al-regimen-de-regularizacion-de-capitales-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/tras-el-paro-aerolineas-inicia-una-semana-en-calma-pero-con-el-conflicto-abierto-y-a-la-espera-de-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/me-tratan-como-una-delincuente-y-soy-la-victima-dijo-la-denunciante-de-los-rugbiers-franceses-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/opinion/la-casta-que-rodea-al-presidente-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/asesinaron-a-una-sargento-de-la-policia-bonaerense-mientras-trabajaba-como-chofer-de-una-app-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-pacto-no-escrito-entre-javier-milei-y-cristina-kirchner-nid07092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/el-hijo-del-argentino-asesinado-en-cisjordania-es-un-sobreviviente-al-ataque-de-hamas-papa-me-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/un-patrullero-atropello-a-tres-personas-durante-una-persecucion-en-un-exclusivo-barrio-de-madrid-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/colombia-o-argentina-inteligencia-artificial-predice-resultado-del-esperado-partido-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/bandera-roja-y-martillo-la-justicia-ordeno-retomar-los-remates-de-bienes-de-lazaro-baez-nid08092024/</t>
+    <t>https://www.lanacion.com.ar/el-mundo/maria-corina-machado-resiste-el-hostigamiento-edmundo-luchara-desde-afuera-y-volvera-para-asumir-la-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/estados-unidos/donald-trump-amenaza-con-encarcelar-a-quienes-cometieron-fraude-electoral-en-2020-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/los-diplomaticos-van-al-paro-y-apuntan-a-mondino-por-el-pago-de-ganancias-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/martinez-sosa-cobro-comisiones-de-200-mil-polizas-optativas-con-una-trampa-en-gendarmeria-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/la-cuadra-del-horror-brutal-impacto-entre-dos-motos-a-100-metros-de-donde-un-abogado-choco-y-mato-a-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/adn-del-crimen-confirman-la-condena-para-el-poderoso-juez-que-era-la-pieza-clave-de-la-banda-formada-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/espectaculos/musica/conociendo-rusia-como-salvar-el-rock-con-buenas-canciones-una-guitarra-y-todo-el-carisma-nid08092024/</t>
   </si>
   <si>
     <t>https://www.lanacion.com.ar/espectaculos/personajes/pacho-odonnell-el-edadismo-su-adiccion-a-la-gimnasia-su-regreso-a-los-escenarios-y-por-que-hay-que-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/la-jugada-del-arquero-de-penarol-que-desato-un-escandalo-tres-expulsados-y-seis-amonestados-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/formula-1-para-todos-un-diputado-reclamo-al-gobierno-que-la-tv-publica-transmita-las-carreras-de-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/cristiano-ronaldo-a-los-39-anos-fue-otra-vez-clave-para-que-portugal-le-gane-a-escocia-por-la-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/colombia-argentina-por-las-eliminatorias-lionel-scaloni-esta-conforme-con-el-nivel-de-equipo-pero-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/river-volvio-a-ganarle-a-boca-en-reserva-y-disfruta-de-un-ano-perfecto-en-el-superclasico-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/maria-corina-machado-resiste-el-hostigamiento-edmundo-luchara-desde-afuera-y-volvera-para-asumir-la-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/estados-unidos/donald-trump-amenaza-con-encarcelar-a-quienes-cometieron-fraude-electoral-en-2020-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/la-larga-lista-de-opositores-perseguidos-que-sufren-el-exilio-impuesto-por-hugo-chavez-y-nicolas-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/los-diplomaticos-van-al-paro-y-apuntan-a-mondino-por-el-pago-de-ganancias-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/martinez-sosa-cobro-comisiones-de-200-mil-polizas-optativas-con-una-trampa-en-gendarmeria-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/la-cuadra-del-horror-brutal-impacto-entre-dos-motos-a-100-metros-de-donde-un-abogado-choco-y-mato-a-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/adn-del-crimen-confirman-la-condena-para-el-poderoso-juez-que-era-la-pieza-clave-de-la-banda-formada-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/espectaculos/musica/conociendo-rusia-como-salvar-el-rock-con-buenas-canciones-una-guitarra-y-todo-el-carisma-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/para-que-importar-para-poder-exportar-nid08092024/</t>
   </si>
   <si>
     <t>https://www.lanacion.com.ar/propiedades/inversiones/la-zona-impensada-en-donde-los-alquileres-dejan-la-renta-mas-alta-del-mercado-10-en-dolares-nid28082024/</t>
@@ -1569,32 +1569,32 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -2054,17 +2054,17 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="2" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="196" spans="1:1">
@@ -2074,7 +2074,7 @@
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="198" spans="1:1">

--- a/links_lanacion.xlsx
+++ b/links_lanacion.xlsx
@@ -253,87 +253,87 @@
     <t>https://www.lanacion.com.ar/politica/patricia-bullrich-hablo-de-la-llave-de-oro-del-kirchnerismo-en-el-senado-de-la-corte-al-jury-a-milei-nid08092024/</t>
   </si>
   <si>
+    <t>https://www.lanacion.com.ar/sociedad/cortina-de-humo-que-es-el-fenomeno-que-llegara-a-buenos-aires-este-lunes-y-que-fue-advertido-por-el-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/asesinaron-a-una-sargento-de-la-policia-bonaerense-mientras-trabajaba-como-chofer-de-una-app-nid08092024/</t>
+  </si>
+  <si>
     <t>https://www.lanacion.com.ar/seguridad/capturaron-al-carnicero-de-giles-el-asesino-multiple-que-se-habia-escapado-durante-una-salida-nid08092024/</t>
   </si>
   <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/historico-con-un-golazo-de-kishi-nunez-la-seleccion-argentina-avanzo-por-primera-vez-a-los-octavos-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/la-afip-dio-nuevas-precisiones-para-adherirse-al-regimen-de-regularizacion-de-capitales-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/tras-el-paro-aerolineas-inicia-una-semana-en-calma-pero-con-el-conflicto-abierto-y-a-la-espera-de-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/me-tratan-como-una-delincuente-y-soy-la-victima-dijo-la-denunciante-de-los-rugbiers-franceses-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/opinion/la-casta-que-rodea-al-presidente-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/el-pacto-no-escrito-entre-javier-milei-y-cristina-kirchner-nid07092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/el-hijo-del-argentino-asesinado-en-cisjordania-es-un-sobreviviente-al-ataque-de-hamas-papa-me-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/un-patrullero-atropello-a-tres-personas-durante-una-persecucion-en-un-exclusivo-barrio-de-madrid-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/colombia-o-argentina-inteligencia-artificial-predice-resultado-del-esperado-partido-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/el-peronismo-en-su-laberinto-quintela-avanza-sin-el-aval-de-cristina-kirchner-y-schiaretti-construye-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/bandera-roja-y-martillo-la-justicia-ordeno-retomar-los-remates-de-bienes-de-lazaro-baez-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/la-jugada-del-arquero-de-penarol-que-desato-un-escandalo-tres-expulsados-y-seis-amonestados-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/formula-1-para-todos-un-diputado-reclamo-al-gobierno-que-la-tv-publica-transmita-las-carreras-de-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/cristiano-ronaldo-a-los-39-anos-fue-otra-vez-clave-para-que-portugal-le-gane-a-escocia-por-la-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/colombia-argentina-por-las-eliminatorias-lionel-scaloni-esta-conforme-con-el-nivel-de-equipo-pero-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/deportes/futbol/river-volvio-a-ganarle-a-boca-en-reserva-y-disfruta-de-un-ano-perfecto-en-el-superclasico-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/asi-fue-la-salida-de-edmundo-gonzalez-de-venezuela-amenazado-por-la-dictadura-de-nicolas-maduro-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/el-mundo/maria-corina-machado-resiste-el-hostigamiento-edmundo-luchara-desde-afuera-y-volvera-para-asumir-la-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/estados-unidos/donald-trump-amenaza-con-encarcelar-a-quienes-cometieron-fraude-electoral-en-2020-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/politica/los-diplomaticos-van-al-paro-y-apuntan-a-mondino-por-el-pago-de-ganancias-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/economia/martinez-sosa-cobro-comisiones-de-200-mil-polizas-optativas-con-una-trampa-en-gendarmeria-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/la-cuadra-del-horror-brutal-impacto-entre-dos-motos-a-100-metros-de-donde-un-abogado-choco-y-mato-a-nid08092024/</t>
+  </si>
+  <si>
+    <t>https://www.lanacion.com.ar/seguridad/adn-del-crimen-confirman-la-condena-para-el-poderoso-juez-que-era-la-pieza-clave-de-la-banda-formada-nid08092024/</t>
+  </si>
+  <si>
     <t>https://www.lanacion.com.ar/deportes/futbol/la-fuerte-acusacion-de-javier-castrilli-contra-la-afa-tras-la-denuncia-de-merlos-al-presidente-de-nid08092024/</t>
   </si>
   <si>
-    <t>https://www.lanacion.com.ar/sociedad/cortina-de-humo-que-es-el-fenomeno-que-llegara-a-buenos-aires-este-lunes-y-que-fue-advertido-por-el-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/historico-con-un-golazo-de-kishi-nunez-la-seleccion-argentina-avanzo-por-primera-vez-a-los-octavos-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/la-afip-dio-nuevas-precisiones-para-adherirse-al-regimen-de-regularizacion-de-capitales-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/tras-el-paro-aerolineas-inicia-una-semana-en-calma-pero-con-el-conflicto-abierto-y-a-la-espera-de-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/me-tratan-como-una-delincuente-y-soy-la-victima-dijo-la-denunciante-de-los-rugbiers-franceses-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/opinion/la-casta-que-rodea-al-presidente-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/asesinaron-a-una-sargento-de-la-policia-bonaerense-mientras-trabajaba-como-chofer-de-una-app-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-pacto-no-escrito-entre-javier-milei-y-cristina-kirchner-nid07092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/el-hijo-del-argentino-asesinado-en-cisjordania-es-un-sobreviviente-al-ataque-de-hamas-papa-me-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/un-patrullero-atropello-a-tres-personas-durante-una-persecucion-en-un-exclusivo-barrio-de-madrid-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/colombia-o-argentina-inteligencia-artificial-predice-resultado-del-esperado-partido-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/el-peronismo-en-su-laberinto-quintela-avanza-sin-el-aval-de-cristina-kirchner-y-schiaretti-construye-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/bandera-roja-y-martillo-la-justicia-ordeno-retomar-los-remates-de-bienes-de-lazaro-baez-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/la-jugada-del-arquero-de-penarol-que-desato-un-escandalo-tres-expulsados-y-seis-amonestados-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/formula-1-para-todos-un-diputado-reclamo-al-gobierno-que-la-tv-publica-transmita-las-carreras-de-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/cristiano-ronaldo-a-los-39-anos-fue-otra-vez-clave-para-que-portugal-le-gane-a-escocia-por-la-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/colombia-argentina-por-las-eliminatorias-lionel-scaloni-esta-conforme-con-el-nivel-de-equipo-pero-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/deportes/futbol/river-volvio-a-ganarle-a-boca-en-reserva-y-disfruta-de-un-ano-perfecto-en-el-superclasico-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/asi-fue-la-salida-de-edmundo-gonzalez-de-venezuela-amenazado-por-la-dictadura-de-nicolas-maduro-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/el-mundo/maria-corina-machado-resiste-el-hostigamiento-edmundo-luchara-desde-afuera-y-volvera-para-asumir-la-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/estados-unidos/donald-trump-amenaza-con-encarcelar-a-quienes-cometieron-fraude-electoral-en-2020-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/politica/los-diplomaticos-van-al-paro-y-apuntan-a-mondino-por-el-pago-de-ganancias-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/economia/martinez-sosa-cobro-comisiones-de-200-mil-polizas-optativas-con-una-trampa-en-gendarmeria-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/la-cuadra-del-horror-brutal-impacto-entre-dos-motos-a-100-metros-de-donde-un-abogado-choco-y-mato-a-nid08092024/</t>
-  </si>
-  <si>
-    <t>https://www.lanacion.com.ar/seguridad/adn-del-crimen-confirman-la-condena-para-el-poderoso-juez-que-era-la-pieza-clave-de-la-banda-formada-nid08092024/</t>
-  </si>
-  <si>
     <t>https://www.lanacion.com.ar/espectaculos/musica/conociendo-rusia-como-salvar-el-rock-con-buenas-canciones-una-guitarra-y-todo-el-carisma-nid08092024/</t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>https://www.lanacion.com.ar/espectaculos/television/los-detalles-del-regreso-de-susana-a-la-tv-grabo-un-sketch-con-caro-pardiaco-y-entrevisto-a-rodrigo-nid07092024/</t>
   </si>
   <si>
-    <t>https://www.lanacion.com.ar/espectaculos/musica/murio-ricardo-verdirame-guitarrista-de-fito-paez-y-de-illya-kuryaki-the-valderramas-nid08092024/</t>
+    <t>https://www.lanacion.com.ar/espectaculos/musica/mariah-carey-vuelve-al-trabajo-luego-de-la-muerte-de-su-madre-y-su-hermana-fueron-un-par-de-semanas-nid08092024/</t>
   </si>
   <si>
     <t>https://www.lanacion.com.ar/salud/vida_sana/</t>
@@ -1564,32 +1564,32 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -1624,47 +1624,47 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -1674,17 +1674,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -1694,42 +1694,42 @@
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -2064,7 +2064,7 @@
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:1">
@@ -2074,7 +2074,7 @@
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="198" spans="1:1">
